--- a/明日之后共创服数据库/服务器.xlsx
+++ b/明日之后共创服数据库/服务器.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\Lifeafter database\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409D21F-52A2-4AFC-831C-F77E28CD76B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C23A21D-B147-4249-B8A5-E438FDD9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1188" windowWidth="22680" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2160" windowWidth="17172" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
